--- a/_site/posts/2021-02-13-dataviz-makeover-02/data/4_insights.xlsx
+++ b/_site/posts/2021-02-13-dataviz-makeover-02/data/4_insights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\awljiang\blog\_posts\2021-02-13-dataviz-makeover-02\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D23244F-770B-40CE-A54C-CD3931DE65CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B535D46-49FE-4487-B77F-DD319C45339B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E5126F01-3BB4-4DF9-8DA2-38F93798EF39}"/>
   </bookViews>
@@ -33,24 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>S/N</t>
   </si>
   <si>
     <t>Insights</t>
-  </si>
-  <si>
-    <t>Close to half (49%) of respondents in Singapore agree/strongly agree that they are worried about getting Covid-19, lower than in Japan (66%), South Korea (59%) and Israel (53%).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Singapore, though ~60% agree/strongly agree that the Govt will provide effective Covid-19 vaccine, ~63% are worried about the potential side-effects of the vaccine. With ~33% willing to receive vaccination if vaccination is available to him/her this week and ~50% willing to be vaccinated if it's available to him/her in a year from now. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Despite having the highest proportion of people worrying about getting Covid-19 compared to other countries, the survey found that only ~36% and ~48% respondents in Japan agree/strongly agree to be vaccinated if vaccines were made available to him/her this week and one year from now, respectively. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Though Netherland had the lowest proportion of people worrying about getting Covid-19 (~32%), ~56% and ~63% responded agree/strongly agree that they will get vaccinated if it's made available to him/her within a week and a year from now, respectively. </t>
   </si>
 </sst>
 </file>
@@ -405,7 +393,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,32 +413,20 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
